--- a/Справочники МГИС.xlsx
+++ b/Справочники МГИС.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Справочники" sheetId="1" r:id="rId1"/>
+    <sheet name="ФЛиПБОЮЛ" sheetId="2" r:id="rId2"/>
+    <sheet name="ЮЛ,ОП, иные неюрид.лица" sheetId="3" r:id="rId3"/>
+    <sheet name="Виды зон" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
   <si>
     <t>Физические лица и предприниматели без образования юридического лица</t>
   </si>
@@ -30,12 +31,6 @@
     <t>Справочник типов адресообразующих элементов</t>
   </si>
   <si>
-    <t xml:space="preserve">Общероссийский классификатор объектов административно-территориального деления </t>
-  </si>
-  <si>
-    <t>Общероссийский классификатор территорий муниципальных образований</t>
-  </si>
-  <si>
     <t>Справочник видов работ</t>
   </si>
   <si>
@@ -45,9 +40,6 @@
     <t>Документы, содержащие сведения о правах</t>
   </si>
   <si>
-    <t>Реестр кадастровых инженеров</t>
-  </si>
-  <si>
     <t>Справочник типов проверки (выездная, камеральная)</t>
   </si>
   <si>
@@ -88,24 +80,265 @@
   </si>
   <si>
     <t xml:space="preserve">Тип объекта </t>
+  </si>
+  <si>
+    <t>Общероссийский классификатор форм собственности ОК 027-99 (ОКФС)</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>ИНН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СНИЛС </t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Эл.адрес</t>
+  </si>
+  <si>
+    <t>Адрес (фактический)</t>
+  </si>
+  <si>
+    <t>Адрес (юридический)</t>
+  </si>
+  <si>
+    <t>Общие</t>
+  </si>
+  <si>
+    <t>Паспортные данные</t>
+  </si>
+  <si>
+    <t>Серия</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Дата выдачи</t>
+  </si>
+  <si>
+    <t>Кем выдан</t>
+  </si>
+  <si>
+    <t>ПБОЮЛ</t>
+  </si>
+  <si>
+    <t>Регистрационный номер</t>
+  </si>
+  <si>
+    <t>ОГРН</t>
+  </si>
+  <si>
+    <t>Дата регистрации</t>
+  </si>
+  <si>
+    <t>Дата внесения записи</t>
+  </si>
+  <si>
+    <t>Сокращенное наименование юридического лица</t>
+  </si>
+  <si>
+    <t>Название на иностранном языке</t>
+  </si>
+  <si>
+    <t>Предыдущее наименование предприятия</t>
+  </si>
+  <si>
+    <t>Принадлежность ВИНК</t>
+  </si>
+  <si>
+    <t>Вертикально-интегрированная нефтяная компания</t>
+  </si>
+  <si>
+    <t>Форма собственности (ОКФС)</t>
+  </si>
+  <si>
+    <t>Резиденты</t>
+  </si>
+  <si>
+    <t>Учредители</t>
+  </si>
+  <si>
+    <t>Лица, действующие от имени организации</t>
+  </si>
+  <si>
+    <t>ОКПО</t>
+  </si>
+  <si>
+    <t>КПП организации</t>
+  </si>
+  <si>
+    <t>Дата начала действия статуса организации</t>
+  </si>
+  <si>
+    <t>Дата регистрации предприятия</t>
+  </si>
+  <si>
+    <t>Свидетельство о регистрации предприятия</t>
+  </si>
+  <si>
+    <t>ВИНК</t>
+  </si>
+  <si>
+    <t>Головное предприятие</t>
+  </si>
+  <si>
+    <t>Основное предприятие</t>
+  </si>
+  <si>
+    <t>Дочернее предприятие</t>
+  </si>
+  <si>
+    <t>Дата внесения записи "Наименование" в ЕГРЮЛ</t>
+  </si>
+  <si>
+    <t>Организации, входящие в холдинг (группу компаний)</t>
+  </si>
+  <si>
+    <t>Фактический адрес предприятия</t>
+  </si>
+  <si>
+    <t>Юридический адрес</t>
+  </si>
+  <si>
+    <t>Код территории по ОКАТО</t>
+  </si>
+  <si>
+    <t>Фактический адрес</t>
+  </si>
+  <si>
+    <t>Контактная информация</t>
+  </si>
+  <si>
+    <t>Код города</t>
+  </si>
+  <si>
+    <t>Факс</t>
+  </si>
+  <si>
+    <t>Веб сайт</t>
+  </si>
+  <si>
+    <t>Электронный адрес</t>
+  </si>
+  <si>
+    <t>Контактная информация руководителя предприятия</t>
+  </si>
+  <si>
+    <t>Ф.И.О.</t>
+  </si>
+  <si>
+    <t>Код и наименование вида деятельности</t>
+  </si>
+  <si>
+    <t>(Общероссийскому классификатору видов экономической деятельности)</t>
+  </si>
+  <si>
+    <t>ГРН и дата внесения в ЕГРИП записи</t>
+  </si>
+  <si>
+    <t>Общероссийский классификатор объектов административно-территориального деления ОК 019-95 (ОКАТО)</t>
+  </si>
+  <si>
+    <t>Общероссийский классификатор территорий муниципальных образований (ОКТМО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Классификатор видов использования земель
+ПРИКАЗ от 27 декабря 2006 г. N П/0425
+</t>
+  </si>
+  <si>
+    <t>Реестр кадастровых инженеров (номер по ГРКИ, ФИО, №аттестата, дата выдачи)</t>
+  </si>
+  <si>
+    <t>Справочник видов работ (кадастровый учет, межевание, налоговый учет, )</t>
+  </si>
+  <si>
+    <t>Зона делового, общественного и коммерческого назначения (О1)</t>
+  </si>
+  <si>
+    <t>Зона жилой застройки специального вида (Ж5)</t>
+  </si>
+  <si>
+    <t>Зона застройки индивидуальными жилыми домами (Ж1)</t>
+  </si>
+  <si>
+    <t>Зона застройки малоэтажными жилыми домами (Ж2)</t>
+  </si>
+  <si>
+    <t>Зона застройки многоэтажными жилыми домами (Ж4)</t>
+  </si>
+  <si>
+    <t>Зона застройки среднеэтажными жилыми домами (Ж3)</t>
+  </si>
+  <si>
+    <t>Зона инженерной инфраструктуры (И)</t>
+  </si>
+  <si>
+    <t>Зона иного назначения, в соответствии с местными условиями (территория общего пользования)</t>
+  </si>
+  <si>
+    <t>Зона обслуживания объектов, необходимых для осуществления производственной и предпринимательской деятельности (О3)</t>
+  </si>
+  <si>
+    <t>Зона размещения объектов социального и коммунально-бытового назначения (О2)</t>
+  </si>
+  <si>
+    <t>Зона рекреационного назначения (Р)</t>
+  </si>
+  <si>
+    <t>Зона сельскохозяйственных угодий (Сх1)</t>
+  </si>
+  <si>
+    <t>Зона специального назначения, связанная с государственными объектами (Сп2)</t>
+  </si>
+  <si>
+    <t>Зона специального назначения, связанная с захоронениями (Сп1)</t>
+  </si>
+  <si>
+    <t>Зона транспортной инфраструктуры (Т)</t>
+  </si>
+  <si>
+    <t>Зона, занятая объектами сельскохозяйственного назначения (Сх2)</t>
+  </si>
+  <si>
+    <t>Коммунально-складская зона (П2)</t>
+  </si>
+  <si>
+    <t>Общественно-деловая зона специального вида (О4)</t>
+  </si>
+  <si>
+    <t>Производственная зона (П1)</t>
+  </si>
+  <si>
+    <t>Приказ Минрегиона РФ от 30.01.2012 N 19 "Об утверждении требований к описанию и отображению в документах территориального планирования объектов федерального значения, объектов регионального значения, объектов местного значения" (Зарегистрировано в Минюсте РФ 17.02.2012 N 23238)</t>
+  </si>
+  <si>
+    <t>Справочник видов зон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Единые требования к описанию адресов при ведении ведомственных информационных ресурсов Приказ ФНС России
+от  «31» августа 2011 г. №  ММВ-7-6/529
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -120,6 +353,54 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF414550"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF414550"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF414550"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF414550"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,15 +418,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -448,172 +763,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:E37"/>
+  <dimension ref="D6:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="83.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D6" s="1" t="s">
+    <row r="6" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="4:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="D16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D27" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -624,24 +956,551 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="C5:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E6:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="117" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="8">
+        <v>601</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="8">
+        <v>602</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="8">
+        <v>603</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="8">
+        <v>604</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="8">
+        <v>605</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="8">
+        <v>606</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="8">
+        <v>607</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="8">
+        <v>608</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="8">
+        <v>609</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="8">
+        <v>610</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="8">
+        <v>611</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="8">
+        <v>612</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="8">
+        <v>613</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="8">
+        <v>614</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="8">
+        <v>615</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="8">
+        <v>616</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="8">
+        <v>617</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="8">
+        <v>618</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="8">
+        <v>619</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E10:F28">
+    <sortCondition ref="E10"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Справочники МГИС.xlsx
+++ b/Справочники МГИС.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7935" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Справочники" sheetId="1" r:id="rId1"/>
     <sheet name="ФЛиПБОЮЛ" sheetId="2" r:id="rId2"/>
     <sheet name="ЮЛ,ОП, иные неюрид.лица" sheetId="3" r:id="rId3"/>
     <sheet name="Виды зон" sheetId="4" r:id="rId4"/>
+    <sheet name="Справочник категорий зем" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="156">
   <si>
     <t>Физические лица и предприниматели без образования юридического лица</t>
   </si>
@@ -330,13 +331,175 @@
     <t xml:space="preserve">Единые требования к описанию адресов при ведении ведомственных информационных ресурсов Приказ ФНС России
 от  «31» августа 2011 г. №  ММВ-7-6/529
 </t>
+  </si>
+  <si>
+    <t>Категория не установлена</t>
+  </si>
+  <si>
+    <t>Неопределено</t>
+  </si>
+  <si>
+    <t>Код    </t>
+  </si>
+  <si>
+    <t>Наименование категории земли               </t>
+  </si>
+  <si>
+    <t>ЗЕМЛИ СЕЛЬСКОХОЗЯЙСТВЕННОГО НАЗНАЧЕНИЯ                     </t>
+  </si>
+  <si>
+    <t>Сельскохозяйственные угодья                                </t>
+  </si>
+  <si>
+    <t>Земли, занятые внутрихозяйственными дорогами,               </t>
+  </si>
+  <si>
+    <t>коммуникациями, лесными насаждениями, предназначенными для  </t>
+  </si>
+  <si>
+    <t>обеспечения защиты земель от воздействия негативных         </t>
+  </si>
+  <si>
+    <t>(вредных) природных, антропогенных и техногенных явлений,   </t>
+  </si>
+  <si>
+    <t>водными объектами, а также занятые зданиями, строениями,    </t>
+  </si>
+  <si>
+    <t>сооружениями, используемыми для производства, хранения и    </t>
+  </si>
+  <si>
+    <t>переработки сельскохозяйственной продукции                 </t>
+  </si>
+  <si>
+    <t>Прочие земли сельскохозяйственного назначения              </t>
+  </si>
+  <si>
+    <t>ЗЕМЛИ НАСЕЛЕННЫХ ПУНКТОВ                                   </t>
+  </si>
+  <si>
+    <t>Земли в пределах населенных пунктов, отнесенные к           </t>
+  </si>
+  <si>
+    <t>территориальным зонам сельскохозяйственного использования  </t>
+  </si>
+  <si>
+    <t>Земельные участки, занятые жилищным фондом и объектами      </t>
+  </si>
+  <si>
+    <t>инженерной инфраструктуры жилищно-коммунального комплекса  </t>
+  </si>
+  <si>
+    <t>Земельные участки, предоставленные для жилищного            </t>
+  </si>
+  <si>
+    <t>строительства                                              </t>
+  </si>
+  <si>
+    <t>Земельные участки, приобретенные в собственность            </t>
+  </si>
+  <si>
+    <t>юридическими и физическими лицами на условиях осуществления </t>
+  </si>
+  <si>
+    <t>на них жилищного строительства (за исключением              </t>
+  </si>
+  <si>
+    <t>индивидуального жилищного строительства)                   </t>
+  </si>
+  <si>
+    <t>физическими лицами на условиях осуществления на них         </t>
+  </si>
+  <si>
+    <t>индивидуального жилищного строительства                    </t>
+  </si>
+  <si>
+    <t>Земельные участки, предоставленные для ведения личного      </t>
+  </si>
+  <si>
+    <t>подсобного хозяйства, садоводства и огородничества или      </t>
+  </si>
+  <si>
+    <t>животноводства, а также дачного хозяйства                  </t>
+  </si>
+  <si>
+    <t>Земельные участки, предоставленные юридическим лицам для    </t>
+  </si>
+  <si>
+    <t>ведения садоводства и огородничества или животноводства, а  </t>
+  </si>
+  <si>
+    <t>также дачного хозяйства                                    </t>
+  </si>
+  <si>
+    <t>Земельные участки, предоставленные физическим лицам для     </t>
+  </si>
+  <si>
+    <t>личного подсобного хозяйства, садоводства и огородничества  </t>
+  </si>
+  <si>
+    <t>или животноводства, а также дачного хозяйства               </t>
+  </si>
+  <si>
+    <t>производственным территориальным зонам и зонам инженерных и </t>
+  </si>
+  <si>
+    <t>транспортных инфраструктур                                 </t>
+  </si>
+  <si>
+    <t>Прочие земельные участки                                    </t>
+  </si>
+  <si>
+    <t>Земли промышленности                                       </t>
+  </si>
+  <si>
+    <t>Земли энергетики                                           </t>
+  </si>
+  <si>
+    <t>Земли транспорта                                            </t>
+  </si>
+  <si>
+    <t>Земли связи, радиовещания, телевидения, информатики        </t>
+  </si>
+  <si>
+    <t>Прочие земли                                               </t>
+  </si>
+  <si>
+    <t>ЗЕМЛИ ОСОБО ОХРАНЯЕМЫХ ТЕРРИТОРИЙ И ОБЪЕКТОВ               </t>
+  </si>
+  <si>
+    <t>ЗЕМЛИ ЛЕСНОГО ФОНДА                                        </t>
+  </si>
+  <si>
+    <t>ЗЕМЛИ ВОДНОГО ФОНДА                                        </t>
+  </si>
+  <si>
+    <t>ЗЕМЛИ ЗАПАСА                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЗЕМЛИ ПРОМЫШЛЕННОСТИ, ЭНЕРГЕТИКИ, ТРАНСПОРТА, СВЯЗИ,        
+РАДИОВЕЩАНИЯ, ТЕЛЕВИДЕНИЯ, ИНФОРМАТИКИ, ЗЕМЛИ ДЛЯ           
+ОБЕСПЕЧЕНИЯ КОСМИЧЕСКОЙ ДЕЯТЕЛЬНОСТИ, ЗЕМЛИ ОБОРОНЫ,        
+БЕЗОПАСНОСТИ И ЗЕМЛИ ИНОГО СПЕЦИАЛЬНОГО НАЗНАЧЕНИЯ         </t>
+  </si>
+  <si>
+    <t>Справочник "Категории земли"</t>
+  </si>
+  <si>
+    <t>Приложение</t>
+  </si>
+  <si>
+    <t>к Приказу от 13 января 2011 года № ММВ-7-11/11@ </t>
+  </si>
+  <si>
+    <t>Справочник</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,16 +564,51 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14.6"/>
+      <color rgb="FF2D3038"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF61646A"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -433,11 +631,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -462,6 +813,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -765,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +1362,7 @@
   <dimension ref="C3:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,8 +1499,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="C5:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,7 +1730,7 @@
   <dimension ref="E6:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,4 +1906,429 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="C1" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22">
+        <v>3001000000</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>3001000010</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>3001000020</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="17"/>
+      <c r="C7" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17"/>
+      <c r="C8" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17"/>
+      <c r="C9" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="17"/>
+      <c r="C10" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="17"/>
+      <c r="C11" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <v>3001000030</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22">
+        <v>3002000000</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>3002000010</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
+        <v>3002000020</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="19"/>
+      <c r="C18" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
+        <v>3002000030</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="17"/>
+      <c r="C22" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="19"/>
+      <c r="C24" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>3002000050</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="17"/>
+      <c r="C26" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="19"/>
+      <c r="C27" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <v>3002000060</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="17"/>
+      <c r="C29" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="19"/>
+      <c r="C30" s="15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
+        <v>3002000070</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="17"/>
+      <c r="C32" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="19"/>
+      <c r="C33" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="18">
+        <v>3002000080</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="17"/>
+      <c r="C35" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="19"/>
+      <c r="C36" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
+        <v>3002000090</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="17"/>
+      <c r="C38" s="16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="19"/>
+      <c r="C39" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14">
+        <v>3002000100</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="24">
+        <v>3003000000</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="26"/>
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14">
+        <v>3003000010</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14">
+        <v>3003000020</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14">
+        <v>3003000030</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="14">
+        <v>3003000040</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="14">
+        <v>3003000050</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="22">
+        <v>3004000000</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="22">
+        <v>3005000000</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="22">
+        <v>3006000000</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="22">
+        <v>3007000000</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="22">
+        <v>3008000000</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="22">
+        <v>0</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E9:F18">
+    <sortCondition ref="E9"/>
+  </sortState>
+  <mergeCells count="12">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Справочники МГИС.xlsx
+++ b/Справочники МГИС.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7935" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="7935" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Справочники" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="Спр Тех показателей" sheetId="11" r:id="rId11"/>
     <sheet name="Справочник констр элем" sheetId="12" r:id="rId12"/>
     <sheet name="Град регламент" sheetId="13" r:id="rId13"/>
-    <sheet name="Лист1" sheetId="14" r:id="rId14"/>
+    <sheet name="Отчетная форма ГПЗУ" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="3142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3522" uniqueCount="3185">
   <si>
     <t>Физические лица и предприниматели без образования юридического лица</t>
   </si>
@@ -9488,12 +9488,141 @@
   <si>
     <t>Вид деятельности (ОКВЭД)</t>
   </si>
+  <si>
+    <t>Градостроительный план (состав данных для отчетной формы)</t>
+  </si>
+  <si>
+    <t>Номер документа</t>
+  </si>
+  <si>
+    <t>Заявление № от 00.00.0000</t>
+  </si>
+  <si>
+    <t>Заявитель (Реестр ФЛ ЮЛ)</t>
+  </si>
+  <si>
+    <t>Субъект РФ</t>
+  </si>
+  <si>
+    <t>Район</t>
+  </si>
+  <si>
+    <t>Населенный пункт</t>
+  </si>
+  <si>
+    <t>Кдастровый номер</t>
+  </si>
+  <si>
+    <t>Описание границ ЗУ</t>
+  </si>
+  <si>
+    <t>План подготовлен кем</t>
+  </si>
+  <si>
+    <t>Иформация о возможности/невозможности разделения ЗУ (делимый, неделимый)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Документ, определяющий  возможность/невозможность разделения ЗУ (наименование, номер, дата) </t>
+  </si>
+  <si>
+    <t>Местоположение ОКС на земельном участке</t>
+  </si>
+  <si>
+    <t>Назначение ОКС</t>
+  </si>
+  <si>
+    <t>часть ЗУ</t>
+  </si>
+  <si>
+    <t>дата подготовки тех.паспорта на ОКС</t>
+  </si>
+  <si>
+    <t>наименование организации (органа) технического учета и (или) технической инвентаризации ОКС</t>
+  </si>
+  <si>
+    <t>назначение объекта культурного наследия</t>
+  </si>
+  <si>
+    <t>напименование органа гос.влсти, принявшего решение о включении выявленного ОКН в реестр</t>
+  </si>
+  <si>
+    <t>реквизиты решения о включении ОКН в реестр</t>
+  </si>
+  <si>
+    <t>Тип инженерно технического обеспечения</t>
+  </si>
+  <si>
+    <t>наименование органа (организации), выдавшего технические условия</t>
+  </si>
+  <si>
+    <t>реквизиты документа тех. условиях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общие сведения </t>
+  </si>
+  <si>
+    <t>Градостроительный регламент</t>
+  </si>
+  <si>
+    <t>Информация о град.регламенте (ссылка ИСОГД)</t>
+  </si>
+  <si>
+    <t>Наименование ОМС, реквизиты документа утверждающего правила</t>
+  </si>
+  <si>
+    <t>Основные виды разрешенного использования</t>
+  </si>
+  <si>
+    <t>Праметры объектов</t>
+  </si>
+  <si>
+    <t>Предельная высота</t>
+  </si>
+  <si>
+    <t>Площадь ОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимальный процент застройки в границах ЗУ </t>
+  </si>
+  <si>
+    <t>и т.д.</t>
+  </si>
+  <si>
+    <t>Проектируемы ОКС</t>
+  </si>
+  <si>
+    <t>Информация о расположенных на ЗУ ОКС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Назначение </t>
+  </si>
+  <si>
+    <t>Инвент.номер</t>
+  </si>
+  <si>
+    <t>дата регистрации</t>
+  </si>
+  <si>
+    <t>Площадь ЗУ</t>
+  </si>
+  <si>
+    <t>Технические условия</t>
+  </si>
+  <si>
+    <t>дата выдачи</t>
+  </si>
+  <si>
+    <t>Чертеж ГПЗУ</t>
+  </si>
+  <si>
+    <t>Карта. Пространственное представление ЗУ и расположенных на нем ОКС (если они есть)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9647,6 +9776,43 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -9869,7 +10035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9996,6 +10162,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -10050,7 +10224,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -10354,8 +10530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10657,12 +10833,12 @@
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="44"/>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="74" t="s">
         <v>439</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="6:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="G3" s="45"/>
@@ -26713,10 +26889,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F30"/>
+  <dimension ref="C3:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26727,192 +26903,185 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="54" t="s">
         <v>3098</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+    <row r="4" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="45"/>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="53" t="s">
         <v>3103</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
+    <row r="6" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
         <v>3125</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>3128</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="53" t="s">
         <v>3099</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>3100</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
-        <v>3101</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
         <v>3126</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>3127</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="11" t="s">
         <v>3102</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D10" s="27" t="s">
         <v>377</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E10" s="27" t="s">
         <v>3104</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
-        <v>3105</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>3109</v>
+        <v>3108</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="9" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="51"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="C27" s="9" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="51" t="s">
-        <v>3122</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>3124</v>
-      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" s="51" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>3124</v>
@@ -26921,10 +27090,20 @@
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="51"/>
-      <c r="D30" s="26"/>
+      <c r="C30" s="51" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>3124</v>
+      </c>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="51"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26934,13 +27113,237 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E4:E48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="44" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="76" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="55" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="55" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="77" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="77" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="77" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="77" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="77" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="77" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="77" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="76" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="76" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="78" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="78" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="76" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="76" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27086,8 +27489,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="C5:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27157,7 +27560,7 @@
       <c r="C17" s="4" t="s">
         <v>3141</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="52" t="s">
         <v>3133</v>
       </c>
     </row>
@@ -27175,7 +27578,7 @@
       <c r="C20" s="4" t="s">
         <v>3135</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="52" t="s">
         <v>3134</v>
       </c>
     </row>
@@ -27198,7 +27601,7 @@
       <c r="C24" s="4" t="s">
         <v>3137</v>
       </c>
-      <c r="I24" s="72" t="s">
+      <c r="I24" s="52" t="s">
         <v>3136</v>
       </c>
     </row>
@@ -27355,7 +27758,7 @@
   <dimension ref="E6:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27590,7 +27993,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55">
+      <c r="B6" s="59">
         <v>3001000020</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -27598,37 +28001,37 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="56"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="16" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="16" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="57"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="15" t="s">
         <v>107</v>
       </c>
@@ -27650,7 +28053,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="55">
+      <c r="B15" s="59">
         <v>3002000010</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -27658,13 +28061,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="57"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="55">
+      <c r="B17" s="59">
         <v>3002000020</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -27672,13 +28075,13 @@
       </c>
     </row>
     <row r="18" spans="2:3" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="57"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55">
+      <c r="B19" s="59">
         <v>3002000030</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -27686,37 +28089,37 @@
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="16" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="16" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="16" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
+      <c r="B24" s="61"/>
       <c r="C24" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="55">
+      <c r="B25" s="59">
         <v>3002000050</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -27724,19 +28127,19 @@
       </c>
     </row>
     <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="16" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
+      <c r="B27" s="61"/>
       <c r="C27" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55">
+      <c r="B28" s="59">
         <v>3002000060</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -27744,19 +28147,19 @@
       </c>
     </row>
     <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="56"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="16" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="57"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="55">
+      <c r="B31" s="59">
         <v>3002000070</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -27764,19 +28167,19 @@
       </c>
     </row>
     <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="16" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="57"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="15" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="55">
+      <c r="B34" s="59">
         <v>3002000080</v>
       </c>
       <c r="C34" s="16" t="s">
@@ -27784,19 +28187,19 @@
       </c>
     </row>
     <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="16" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="57"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="55">
+      <c r="B37" s="59">
         <v>3002000090</v>
       </c>
       <c r="C37" s="16" t="s">
@@ -27804,13 +28207,13 @@
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="56"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="16" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="57"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="15" t="s">
         <v>132</v>
       </c>
@@ -27824,28 +28227,28 @@
       </c>
     </row>
     <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="58">
+      <c r="B41" s="62">
         <v>3003000000</v>
       </c>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="56" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="59"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="57"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="59"/>
-      <c r="C43" s="53"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="57"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="59"/>
-      <c r="C44" s="53"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="57"/>
     </row>
     <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="60"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="58"/>
     </row>
     <row r="46" spans="2:3" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
@@ -27963,7 +28366,7 @@
   <dimension ref="C4:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28344,34 +28747,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="67"/>
     </row>
     <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" s="26"/>
     </row>
     <row r="5" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="68" t="s">
         <v>348</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="69" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D6" s="64"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="66"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="70"/>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D7" s="33" t="s">
@@ -29097,7 +29500,7 @@
       <c r="G15" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="H15" s="68" t="s">
+      <c r="H15" s="72" t="s">
         <v>306</v>
       </c>
     </row>
@@ -29111,7 +29514,7 @@
       <c r="G16" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="69"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="5:8" ht="40.5" x14ac:dyDescent="0.25">
       <c r="E17" s="33" t="s">
@@ -29159,7 +29562,7 @@
       <c r="G20" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="72" t="s">
         <v>305</v>
       </c>
     </row>
@@ -29173,7 +29576,7 @@
       <c r="G21" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="H21" s="69"/>
+      <c r="H21" s="73"/>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="38"/>
